--- a/medicine/Handicap/Sous-titrage_par_rétroviseur/Sous-titrage_par_rétroviseur.xlsx
+++ b/medicine/Handicap/Sous-titrage_par_rétroviseur/Sous-titrage_par_rétroviseur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sous-titrage_par_r%C3%A9troviseur</t>
+          <t>Sous-titrage_par_rétroviseur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sous-titrage par rétroviseur est un système équipant certaines salles de cinéma, et qui consiste à retranscrire sous forme textuelle la bande son du film projeté, afin de le rendre accessible aux spectateurs souffrant d'une déficience auditive (sourds et aux malentendants), sans que les autres spectateurs ne voient les sous-titres. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sous-titrage_par_r%C3%A9troviseur</t>
+          <t>Sous-titrage_par_rétroviseur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les spectateurs souhaitant bénéficier des sous-titres se munissent auprès du cinéma d'un panneau portable en plastique, dont la surface est réfléchissante : le « rétroviseur ».
 Montés sur une tige flexible, ils peuvent l'installer dans le porte-gobelet équipant leur siège, ou à défaut, directement au sol. Ils l'ajustent de manière à pouvoir le regarder en même temps que l'écran diffusant le film, le plaçant généralement en dessous de ce dernier.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sous-titrage_par_r%C3%A9troviseur</t>
+          <t>Sous-titrage_par_rétroviseur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Alternative</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette technique est une alternative aux sous-titres traditionnels, intégrés directement aux images. Par rapport à ces derniers, son avantage est que les autres spectateurs, entendants, et qui n'ont donc pas besoin des sous-titres, ne les voient pas. C'est d'ailleurs par peur de gêner les entendants avec des sous-titres intrusifs et inutiles pour eux, qu'ils sont très rarement insérés dans les images elles-mêmes, lors de projections de films dont la bande son n'est pas en langue étrangère.
 </t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sous-titrage_par_r%C3%A9troviseur</t>
+          <t>Sous-titrage_par_rétroviseur</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce système est principalement utilisé en Amérique du Nord (Canada et États-Unis), où il est connu sous la marque Rear Window Captioning System (de l'anglais signifiant littéralement « système de sous-titrage par fenêtre arrière ») ; les salles proposant ce système sont identifiées par le sigle RWC.
 Il a été codéveloppé par WGBH, chaîne de télévision et station de radio publique basée à Boston, et Rufus Butler Seder, un réalisateur.
